--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3688560.780388782</v>
+        <v>3684308.300762158</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234415</v>
+        <v>369.5303149620401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548849</v>
+        <v>156.6862937548845</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607354</v>
+        <v>62.22601572607287</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.0968198883207</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031486</v>
+        <v>63.69429571031466</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870494</v>
+        <v>53.80849853870458</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799449</v>
+        <v>10.93507936649628</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486215</v>
@@ -797,7 +797,7 @@
         <v>225.8922693348453</v>
       </c>
       <c r="V3" t="n">
-        <v>85.91866073596404</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.33425353872487</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601776</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>76.71947533735208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>178.1346330595205</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>94.81175539364365</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>155.3174091611571</v>
+        <v>155.3174091611575</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>92.80671266704684</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>112.5113476959618</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.1926570617457</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>99.99717632722469</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6571965153884</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4589496224465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>15.51491006411178</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>75.55208621972804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.65602513333643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>96.02642072444083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8624097380495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>32.57570591154008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3037508385503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.15100857094487</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>155.6850131498952</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695597</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
-        <v>64.91921363453658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>100.1928033809251</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.96816871822448</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957.5824394386591</v>
+        <v>1316.797396226231</v>
       </c>
       <c r="C2" t="n">
-        <v>588.6199224982474</v>
+        <v>947.8348792858189</v>
       </c>
       <c r="D2" t="n">
-        <v>230.3542238914969</v>
+        <v>589.5691806790685</v>
       </c>
       <c r="E2" t="n">
-        <v>230.3542238914969</v>
+        <v>589.5691806790685</v>
       </c>
       <c r="F2" t="n">
-        <v>223.4087231422935</v>
+        <v>582.623679929865</v>
       </c>
       <c r="G2" t="n">
-        <v>209.360735523764</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="H2" t="n">
-        <v>209.360735523764</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297121</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710319</v>
+        <v>156.4961545710332</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004978</v>
+        <v>435.2148351005004</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311587</v>
+        <v>833.2666318311631</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537217</v>
+        <v>1292.782497537223</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813633</v>
+        <v>1745.10181281364</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.0264781328</v>
+        <v>2127.026478132809</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935752</v>
+        <v>2415.315960935763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648561</v>
+        <v>2554.587596648573</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309092</v>
+        <v>2491.733035309105</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309092</v>
+        <v>2312.716599815396</v>
       </c>
       <c r="T2" t="n">
-        <v>2272.553003759861</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="U2" t="n">
-        <v>2272.553003759861</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.49011641629</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="W2" t="n">
-        <v>1941.49011641629</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="X2" t="n">
-        <v>1734.321611478593</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1344.182279502781</v>
+        <v>1703.397236290352</v>
       </c>
     </row>
     <row r="3">
@@ -4406,43 +4406,43 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297121</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687499</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="K3" t="n">
-        <v>364.874214727052</v>
+        <v>295.7894542912745</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066705</v>
+        <v>686.2201089708942</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633818</v>
+        <v>1193.813489198043</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631792</v>
+        <v>1730.548369196019</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908663</v>
+        <v>2155.140246472891</v>
       </c>
       <c r="P3" t="n">
-        <v>2547.994353427075</v>
+        <v>2478.909592991304</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648561</v>
+        <v>2554.587596648573</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922596</v>
+        <v>2500.235577922609</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973156</v>
+        <v>2489.190043208976</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257377</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.50322482824</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
         <v>1826.716698832317</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2144.785310596261</v>
+        <v>199.0048455153646</v>
       </c>
       <c r="C4" t="n">
-        <v>1975.849127668354</v>
+        <v>199.0048455153646</v>
       </c>
       <c r="D4" t="n">
-        <v>1975.849127668354</v>
+        <v>199.0048455153646</v>
       </c>
       <c r="E4" t="n">
-        <v>1975.849127668354</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="F4" t="n">
-        <v>1975.849127668354</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="G4" t="n">
-        <v>1975.849127668354</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="H4" t="n">
-        <v>1975.849127668354</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="I4" t="n">
-        <v>1975.849127668354</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="J4" t="n">
-        <v>1926.241611874397</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="K4" t="n">
-        <v>1976.180317018611</v>
+        <v>101.0304570771859</v>
       </c>
       <c r="L4" t="n">
-        <v>2095.611100911751</v>
+        <v>220.4612409703266</v>
       </c>
       <c r="M4" t="n">
-        <v>2231.923240190033</v>
+        <v>356.773380248609</v>
       </c>
       <c r="N4" t="n">
-        <v>2370.428797890742</v>
+        <v>495.278937949319</v>
       </c>
       <c r="O4" t="n">
-        <v>2482.344802686985</v>
+        <v>607.1949427455629</v>
       </c>
       <c r="P4" t="n">
-        <v>2554.587596648561</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="Q4" t="n">
-        <v>2554.587596648561</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="R4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="S4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="T4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="U4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="V4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="W4" t="n">
-        <v>2403.92819495918</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="X4" t="n">
-        <v>2326.433775426501</v>
+        <v>451.4481858091218</v>
       </c>
       <c r="Y4" t="n">
-        <v>2326.433775426501</v>
+        <v>230.6556066655917</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.383966414917</v>
+        <v>1426.19817411094</v>
       </c>
       <c r="C5" t="n">
-        <v>867.4214494745053</v>
+        <v>1426.19817411094</v>
       </c>
       <c r="D5" t="n">
-        <v>509.1557508677548</v>
+        <v>1067.93247550419</v>
       </c>
       <c r="E5" t="n">
-        <v>509.1557508677548</v>
+        <v>682.1442229059458</v>
       </c>
       <c r="F5" t="n">
         <v>502.2102501185513</v>
@@ -4564,25 +4564,25 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>617.0320733085989</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>1169.845331554798</v>
+        <v>610.4341993187981</v>
       </c>
       <c r="M5" t="n">
-        <v>1356.544744380206</v>
+        <v>1242.15201030211</v>
       </c>
       <c r="N5" t="n">
-        <v>1550.878957272188</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039265</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4600,19 +4600,19 @@
         <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2310.354841004414</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>1979.291953660843</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.523298390729</v>
+        <v>1799.66393237202</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.523298390729</v>
+        <v>1426.19817411094</v>
       </c>
       <c r="Y5" t="n">
-        <v>1236.383966414917</v>
+        <v>1426.19817411094</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>636.5640407464026</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1270.743024525441</v>
+        <v>1367.541868311954</v>
       </c>
       <c r="N6" t="n">
-        <v>1904.922008304479</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812388</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,7 +4676,7 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
         <v>2037.885071945108</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.12137432736571</v>
+        <v>312.9821679488397</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>219.2380137397014</v>
       </c>
       <c r="D7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>807.0556807912335</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>517.9035043689132</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>517.9035043689132</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>517.9035043689132</v>
+        <v>761.7642979903871</v>
       </c>
       <c r="X7" t="n">
-        <v>289.9139534708958</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.12137432736571</v>
+        <v>312.9821679488397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>933.6727333395304</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>933.6727333395304</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>522.6868285499229</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.2332512597245</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>219.2332512597245</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1388.754434281607</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1165.775953476342</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1165.775953476342</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>911.091465270455</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>621.6742952334944</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>621.6742952334944</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>400.8817160899642</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939063</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096652</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190824</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8692823226945</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947875</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824516</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000584</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000584</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000584</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1817.40153543733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1562.717047231443</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.299877194482</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1045.310326296465</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.5177471529344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.9555321712454</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433384</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310025</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310025</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1922.614765620014</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043033</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014853</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5506,46 +5506,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2728.681520806317</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M21" t="n">
-        <v>3326.060008432869</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>3953.657971987476</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,25 +6229,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3355.249510984192</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3045.530642171615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2876.594459243708</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243708</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3447.971686145384</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3447.971686145384</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3227.179107001854</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290475</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888046</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888046</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908941</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>868.6673633290475</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3110.333886317439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2941.397703389532</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389532</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807138</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024108</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4064.073560288544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3809.389072082657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3519.971902045696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3291.982351147678</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3291.982351147678</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3097.464178263358</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2947.347538851023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2799.43444526863</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2652.544497770719</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2485.348398485599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,22 +7493,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285115</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>418.8200494577845</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380922</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101854</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978499</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>422.7903292978499</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>275.9003817999397</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057736</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611862</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164196</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.34979150037209</v>
+        <v>121.1323777991427</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.5578112649163</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>319.2538912541072</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>306.0684860781997</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>160.1029533728773</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.371181585577118e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.058837553562474e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7255247667978</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>165.5113759375328</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>210.9709121168631</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>193.1339494774971</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>59.21924749804086</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.4336447811501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>130.4994612393491</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
-        <v>75.37549921168728</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.3313349113437</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.5559695740442</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710699</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161919</v>
+        <v>548460.0746161955</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299314</v>
+        <v>225009.981629928</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843791</v>
+        <v>167098.1292843797</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243610711</v>
+        <v>498.7619243603284</v>
       </c>
       <c r="L3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198077</v>
+        <v>247452.3619198067</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26426,40 +26426,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719558</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171972</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719632</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719635</v>
-      </c>
       <c r="K4" t="n">
-        <v>7507.368461719542</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719543</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719542</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719683</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719691</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371945995</v>
+        <v>80023.31371946019</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95946.06888439026</v>
+        <v>-95946.06888439256</v>
       </c>
       <c r="C6" t="n">
-        <v>271154.1283019329</v>
+        <v>271154.1283019361</v>
       </c>
       <c r="D6" t="n">
-        <v>262253.035861454</v>
+        <v>262253.0358614535</v>
       </c>
       <c r="E6" t="n">
-        <v>150673.929795333</v>
+        <v>150326.5505409759</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.992165522</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655224</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.3714198788</v>
+        <v>657811.992165522</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198789</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="J6" t="n">
-        <v>491061.2421355002</v>
+        <v>490713.8628811422</v>
       </c>
       <c r="K6" t="n">
-        <v>657660.6094955183</v>
+        <v>657313.2302411615</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909522</v>
+        <v>525204.6984365955</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198788</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198789</v>
+        <v>657811.9921655223</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198789</v>
+        <v>657811.9921655221</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817354</v>
+        <v>347.0634059817381</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621401</v>
+        <v>638.6468991621432</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817354</v>
+        <v>347.0634059817381</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563297</v>
+        <v>246.412694356327</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.5887917794741</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621401</v>
+        <v>638.6468991621432</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789858</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621402</v>
+        <v>638.646899162143</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937898942</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621401</v>
+        <v>638.6468991621432</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789858</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>44.37719278030403</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051724</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387728</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.6342807901484</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8819264134485</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8819264134612</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.4977266432124</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.11144063601742</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845234</v>
+        <v>33.75546894845193</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866938</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>148.9901800516851</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>228.7414126821909</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,19 +27672,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>156.343030828657</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>70.53999045278877</v>
+        <v>70.53999045278832</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>74.440108431581</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>110.8615570247969</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.5411846017349</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>311.5505264457293</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>51.00526384634907</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.621080500268282e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790895</v>
+        <v>1.395229772790906</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059476</v>
+        <v>14.28889691059487</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552103</v>
+        <v>53.78959581552144</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284113</v>
+        <v>118.4183829284122</v>
       </c>
       <c r="K2" t="n">
-        <v>177.47845921065</v>
+        <v>177.4784592106513</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223696994</v>
+        <v>220.1777223697011</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415694</v>
+        <v>244.9901398415713</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335116</v>
+        <v>248.9543364335135</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803221</v>
+        <v>235.0805203803239</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645468</v>
+        <v>200.6357853645484</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264729</v>
+        <v>150.669119126474</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507614</v>
+        <v>87.64310221507681</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747255</v>
+        <v>31.7937984474728</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392146</v>
+        <v>6.107618330392193</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232716</v>
+        <v>0.1116183818232724</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682611</v>
+        <v>0.7465137411682669</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809259</v>
+        <v>7.209751131809315</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110022</v>
+        <v>25.70233714110042</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502419</v>
+        <v>70.52917762502473</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832977</v>
+        <v>120.5455982832986</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426963</v>
+        <v>162.0884331426976</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600458</v>
+        <v>189.1495562600472</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821786</v>
+        <v>194.1557821821801</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857661</v>
+        <v>177.6146092857674</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323849</v>
+        <v>142.551382732386</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351347</v>
+        <v>95.29182422351421</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393819</v>
+        <v>46.34933561393855</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389291</v>
+        <v>13.86616532389302</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200139</v>
+        <v>3.008974246200162</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949088</v>
+        <v>0.04911274612949126</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736211</v>
+        <v>0.625852043573626</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772744</v>
+        <v>5.564393623772788</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946854</v>
+        <v>18.82107781946868</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065501</v>
+        <v>44.24773948065535</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833518979</v>
+        <v>72.71262833519035</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730001</v>
+        <v>93.04713018730074</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218134</v>
+        <v>98.1051526121821</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886157</v>
+        <v>95.77243135886231</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711514</v>
+        <v>88.46134157711582</v>
       </c>
       <c r="P4" t="n">
-        <v>75.6939598882132</v>
+        <v>75.69395988821378</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324205</v>
+        <v>52.40657430324245</v>
       </c>
       <c r="R4" t="n">
-        <v>28.140583704683</v>
+        <v>28.14058370468321</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027847</v>
+        <v>10.90689425027855</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269108</v>
+        <v>2.674095095269128</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492483</v>
+        <v>0.03413738419492509</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>220.7280629601513</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>697.0074482175627</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>272.9327299394441</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576914</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>459.3154675919694</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,19 +33259,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>355.4083096598242</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,34 +33496,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>640.2652944187041</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33736,19 +33736,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>216.0947523943933</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33757,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33970,31 +33970,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>351.4708102230524</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737988</v>
+        <v>106.4690935737997</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368341</v>
+        <v>281.5340207368355</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501626</v>
+        <v>402.0725219501643</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071292</v>
+        <v>464.157440107131</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489048</v>
+        <v>456.8881972489067</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213807</v>
+        <v>385.7824902213825</v>
       </c>
       <c r="P2" t="n">
-        <v>291.20149778076</v>
+        <v>291.2014977807615</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119281</v>
+        <v>140.6784199119292</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876633</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215173</v>
+        <v>247.1693963215182</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662813</v>
+        <v>394.3743986662826</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880274</v>
+        <v>512.7205860880288</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444423988</v>
+        <v>542.1564444424002</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180511</v>
+        <v>428.8806841180525</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579918</v>
+        <v>327.0397439579929</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.65984163786405</v>
+        <v>76.44242793663543</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930694</v>
+        <v>50.44313650930749</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476162</v>
+        <v>120.6371554476169</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740219</v>
+        <v>137.6890295740227</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380901</v>
+        <v>139.9046037380909</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911548</v>
+        <v>113.0464694911555</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310669</v>
+        <v>72.97251915310727</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>380.9549370978378</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>459.9899072553731</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>487.3789268404267</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>321.2265015231405</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>82.88662398579228</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>565.6657361342294</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>130.3364854949997</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>316.719223147525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>473.7790427150405</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>213.2742757378059</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36928,7 +36928,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>498.1312604966859</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>77.54037261451916</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37876,10 +37876,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.4890361370308</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>108.4053175402703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38113,7 +38113,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3684308.300762158</v>
+        <v>3686068.831064944</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>369.5303149620401</v>
+        <v>369.5303149620474</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548845</v>
+        <v>156.6862937548842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607287</v>
+        <v>62.22601572607249</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>134.7842894019849</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046872</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031466</v>
+        <v>63.69429571031455</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870458</v>
+        <v>53.80849853870438</v>
       </c>
       <c r="S3" t="n">
-        <v>10.93507936649628</v>
+        <v>157.8170057799447</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.33425353872487</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>89.79708782913647</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>178.1346330595205</v>
+        <v>178.13463305952</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>155.3174091611575</v>
+        <v>155.3174091611571</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>92.80671266704684</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.1705422159065</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>99.99717632722469</v>
+        <v>99.9971763272238</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.51491006411178</v>
+        <v>15.51491006411133</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745757</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695597</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670954</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187846</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316.797396226231</v>
+        <v>1316.797396226238</v>
       </c>
       <c r="C2" t="n">
-        <v>947.8348792858189</v>
+        <v>947.8348792858262</v>
       </c>
       <c r="D2" t="n">
-        <v>589.5691806790685</v>
+        <v>589.5691806790758</v>
       </c>
       <c r="E2" t="n">
-        <v>589.5691806790685</v>
+        <v>589.5691806790758</v>
       </c>
       <c r="F2" t="n">
-        <v>582.623679929865</v>
+        <v>582.6236799298723</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237637</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237637</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710332</v>
+        <v>156.4961545710339</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005004</v>
+        <v>435.2148351005021</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311631</v>
+        <v>833.2666318311656</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537223</v>
+        <v>1292.782497537226</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.10181281364</v>
+        <v>1745.101812813645</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132809</v>
+        <v>2127.026478132815</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935763</v>
+        <v>2415.315960935769</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648573</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309105</v>
+        <v>2491.733035309112</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815396</v>
+        <v>2312.716599815403</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="V2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="W2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="X2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1703.397236290352</v>
+        <v>1703.39723629036</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>840.2866238777615</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>665.8335945966345</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>516.8991849353832</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>357.6617299299277</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="G3" t="n">
         <v>221.5159830592359</v>
@@ -4406,55 +4406,55 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="K3" t="n">
-        <v>295.7894542912745</v>
+        <v>295.7894542912751</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708942</v>
+        <v>686.2201089708956</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.813489198043</v>
+        <v>1193.813489198045</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.548369196019</v>
+        <v>1642.492908358685</v>
       </c>
       <c r="O3" t="n">
-        <v>2155.140246472891</v>
+        <v>2067.084785635558</v>
       </c>
       <c r="P3" t="n">
-        <v>2478.909592991304</v>
+        <v>2390.854132153971</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648573</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922609</v>
+        <v>2500.235577922615</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.824460973176</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2141.677234257397</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1913.50322482826</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596518</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1424.113759868316</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662783</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.50196089783</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.0048455153646</v>
+        <v>367.9410284432716</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0048455153646</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0048455153646</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297146</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771859</v>
+        <v>101.0304570771863</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703266</v>
+        <v>220.4612409703274</v>
       </c>
       <c r="M4" t="n">
-        <v>356.773380248609</v>
+        <v>356.7733802486104</v>
       </c>
       <c r="N4" t="n">
-        <v>495.278937949319</v>
+        <v>495.2789379493207</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455629</v>
+        <v>607.1949427455651</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071392</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="X4" t="n">
-        <v>451.4481858091218</v>
+        <v>588.7336075868018</v>
       </c>
       <c r="Y4" t="n">
-        <v>230.6556066655917</v>
+        <v>367.9410284432716</v>
       </c>
     </row>
     <row r="5">
@@ -4552,7 +4552,7 @@
         <v>1067.93247550419</v>
       </c>
       <c r="E5" t="n">
-        <v>682.1442229059458</v>
+        <v>682.1442229059453</v>
       </c>
       <c r="F5" t="n">
         <v>502.2102501185513</v>
@@ -4564,7 +4564,7 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
@@ -4573,16 +4573,16 @@
         <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>610.4341993187981</v>
+        <v>610.4341993187976</v>
       </c>
       <c r="M5" t="n">
-        <v>1242.15201030211</v>
+        <v>1242.152010302109</v>
       </c>
       <c r="N5" t="n">
         <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4640,31 +4640,31 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1367.541868311954</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1748.14579119009</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,7 +4676,7 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
         <v>2037.885071945108</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.9821679488397</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2380137397014</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4764,13 +4764,13 @@
         <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>944.9485971021898</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7747470923698</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y7" t="n">
-        <v>312.9821679488397</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886693</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.938431946281</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395304</v>
+        <v>933.6727333395295</v>
       </c>
       <c r="E8" t="n">
-        <v>933.6727333395304</v>
+        <v>933.6727333395295</v>
       </c>
       <c r="F8" t="n">
-        <v>522.6868285499229</v>
+        <v>522.686828549922</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4898,7 +4898,7 @@
         <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4950,37 +4950,37 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,10 +5132,10 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,28 +5296,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2431.291457252875</v>
@@ -5469,19 +5469,19 @@
         <v>2211.689992275817</v>
       </c>
       <c r="U16" t="n">
-        <v>1922.614765620014</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.930277414127</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W16" t="n">
         <v>1378.513107377167</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.523556479149</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096656</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467611</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M24" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7563,52 +7563,52 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
         <v>974.1018203925706</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164196</v>
+        <v>56.30844904164165</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>390.3974644068494</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>121.1323777991427</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>319.2538912541072</v>
+        <v>319.2538912541067</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>306.0684860781997</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>369.9956874605992</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.0329012241564</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>165.5113759375328</v>
+        <v>165.5113759375333</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>116.6691671648113</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.72409101823369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.2291039219418</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>20.61870490125429</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753812.279835988</v>
+        <v>753812.2798359881</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671406</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710699</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161955</v>
+        <v>548460.0746161975</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.981629928</v>
+        <v>225009.981629926</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843797</v>
+        <v>167098.1292843803</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243603284</v>
+        <v>498.7619243598309</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.850951906879721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198067</v>
+        <v>247452.3619198062</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719698</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719632</v>
-      </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171977</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171976</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946019</v>
+        <v>80023.31371946033</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95946.06888439256</v>
+        <v>-95946.06888439489</v>
       </c>
       <c r="C6" t="n">
-        <v>271154.1283019361</v>
+        <v>271154.1283019383</v>
       </c>
       <c r="D6" t="n">
-        <v>262253.0358614535</v>
+        <v>262253.0358614539</v>
       </c>
       <c r="E6" t="n">
-        <v>150326.5505409759</v>
+        <v>150639.1918698975</v>
       </c>
       <c r="F6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="G6" t="n">
-        <v>657811.9921655224</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="H6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="I6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944437</v>
       </c>
       <c r="J6" t="n">
-        <v>490713.8628811422</v>
+        <v>491026.5042100631</v>
       </c>
       <c r="K6" t="n">
-        <v>657313.2302411615</v>
+        <v>657625.8715700835</v>
       </c>
       <c r="L6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="M6" t="n">
-        <v>525204.6984365955</v>
+        <v>525517.339765517</v>
       </c>
       <c r="N6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="O6" t="n">
-        <v>657811.9921655223</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="P6" t="n">
-        <v>657811.9921655221</v>
+        <v>658124.6334944433</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.313689883599651e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817381</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621432</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.313689883599651e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817381</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
-        <v>246.412694356327</v>
+        <v>246.4126943563255</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794741</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621432</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937895653</v>
+        <v>1.937932937893834</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162143</v>
+        <v>638.6468991621451</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895653</v>
+        <v>1.93793293789372</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621432</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895653</v>
+        <v>1.937932937893834</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>44.37719278030403</v>
+        <v>44.3771927802967</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.28492299139899</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8819264134485</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.4977266432124</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601742</v>
+        <v>49.11144063601723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845193</v>
+        <v>33.75546894845171</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724863</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>135.9125675599007</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>228.7414126821909</v>
+        <v>228.7414126821914</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>70.53999045278832</v>
+        <v>70.53999045278877</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>74.440108431581</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.3524561206845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>311.5505264457293</v>
+        <v>311.5505264457302</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790906</v>
+        <v>1.395229772790912</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059487</v>
+        <v>14.28889691059493</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552144</v>
+        <v>53.78959581552169</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284122</v>
+        <v>118.4183829284128</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106513</v>
+        <v>177.4784592106521</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697011</v>
+        <v>220.177722369702</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415713</v>
+        <v>244.9901398415724</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335135</v>
+        <v>248.9543364335146</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803239</v>
+        <v>235.0805203803249</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645484</v>
+        <v>200.6357853645493</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.669119126474</v>
+        <v>150.6691191264747</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507681</v>
+        <v>87.64310221507719</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7937984474728</v>
+        <v>31.79379844747294</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392193</v>
+        <v>6.10761833039222</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232724</v>
+        <v>0.1116183818232729</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682669</v>
+        <v>0.7465137411682701</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809315</v>
+        <v>7.209751131809346</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110042</v>
+        <v>25.70233714110053</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502473</v>
+        <v>70.52917762502504</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832986</v>
+        <v>120.5455982832991</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426976</v>
+        <v>162.0884331426983</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600472</v>
+        <v>189.1495562600481</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821801</v>
+        <v>194.1557821821809</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857674</v>
+        <v>177.6146092857682</v>
       </c>
       <c r="P3" t="n">
-        <v>142.551382732386</v>
+        <v>142.5513827323866</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351421</v>
+        <v>95.29182422351462</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393855</v>
+        <v>46.34933561393876</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389302</v>
+        <v>13.86616532389308</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200162</v>
+        <v>3.008974246200175</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949126</v>
+        <v>0.04911274612949147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625852043573626</v>
+        <v>0.6258520435736287</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772788</v>
+        <v>5.564393623772812</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946868</v>
+        <v>18.82107781946877</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065535</v>
+        <v>44.24773948065555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519035</v>
+        <v>72.71262833519067</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730074</v>
+        <v>93.04713018730115</v>
       </c>
       <c r="M4" t="n">
-        <v>98.1051526121821</v>
+        <v>98.10515261218254</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886231</v>
+        <v>95.77243135886272</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711582</v>
+        <v>88.46134157711622</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821378</v>
+        <v>75.69395988821412</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324245</v>
+        <v>52.40657430324268</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468321</v>
+        <v>28.14058370468334</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027855</v>
+        <v>10.9068942502786</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269128</v>
+        <v>2.67409509526914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492509</v>
+        <v>0.03413738419492524</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>697.0074482175627</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589143</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737997</v>
+        <v>106.4690935738003</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368355</v>
+        <v>281.5340207368363</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501643</v>
+        <v>402.0725219501652</v>
       </c>
       <c r="M2" t="n">
-        <v>464.157440107131</v>
+        <v>464.1574401071322</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489067</v>
+        <v>456.8881972489078</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213825</v>
+        <v>385.7824902213836</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807615</v>
+        <v>291.2014977807623</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119292</v>
+        <v>140.6784199119299</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215182</v>
+        <v>247.1693963215187</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662826</v>
+        <v>394.3743986662833</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880288</v>
+        <v>512.7205860880297</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424002</v>
+        <v>453.211534505697</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180525</v>
+        <v>428.8806841180533</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579929</v>
+        <v>327.0397439579936</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.44242793663543</v>
+        <v>165.3873378733422</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930749</v>
+        <v>50.44313650930782</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476169</v>
+        <v>120.6371554476173</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740227</v>
+        <v>137.6890295740231</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380909</v>
+        <v>139.9046037380913</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911555</v>
+        <v>113.0464694911559</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310727</v>
+        <v>72.97251915310761</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>459.9899072553731</v>
+        <v>459.9899072553726</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35023,19 +35023,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>487.3789268404267</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>570.6590628673313</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>602.2300008170303</v>
+        <v>602.2300008170298</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>565.6657361342294</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728927</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121058</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
